--- a/Q1-lilii/Concentrado.xlsx
+++ b/Q1-lilii/Concentrado.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="25560" windowHeight="16340" tabRatio="876" activeTab="2"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="25560" windowHeight="16340" tabRatio="876" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Q1-Gestor" sheetId="1" r:id="rId1"/>
     <sheet name="Q2-Docente" sheetId="4" r:id="rId2"/>
-    <sheet name="Q3-Experto" sheetId="5" r:id="rId3"/>
-    <sheet name="Q4_DUA" sheetId="7" r:id="rId4"/>
-    <sheet name="Q3-expertoDatos" sheetId="2" r:id="rId5"/>
-    <sheet name="Q4_DUA_PARTICIPANTES" sheetId="6" r:id="rId6"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId7"/>
+    <sheet name="Q2_Estudiantes" sheetId="8" r:id="rId3"/>
+    <sheet name="Q3-Experto" sheetId="5" r:id="rId4"/>
+    <sheet name="Q4_DUA" sheetId="7" r:id="rId5"/>
+    <sheet name="Q3-expertoDatos" sheetId="2" r:id="rId6"/>
+    <sheet name="Q4_DUA_PARTICIPANTES" sheetId="6" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId8"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Q3-expertoDatos'!$A$1:$EV$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Q4_DUA_PARTICIPANTES!$A$1:$DM$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Q3-expertoDatos'!$A$1:$EV$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Q4_DUA_PARTICIPANTES!$A$1:$DM$5</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="187">
   <si>
     <t>Agregation</t>
   </si>
@@ -801,12 +803,528 @@
   <si>
     <t>(Parcialmente de acuerdo, -0.3)</t>
   </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <t>(Correct, 0.38)</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>04</t>
+    </r>
+  </si>
+  <si>
+    <t>(Correct, 0.04)</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>08</t>
+    </r>
+  </si>
+  <si>
+    <t>(Correct, -0.08)</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>(Very Correct, -0.18)</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <t>(Very Correct, -0.01)</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <t>(Very Correct, -0.21)</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>21</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>(Correct, -0.31)</t>
+  </si>
+  <si>
+    <t>(Excellent, -0.4)</t>
+  </si>
+  <si>
+    <t>(Excellent ,0)</t>
+  </si>
+  <si>
+    <t>(Very correct, -0.38)</t>
+  </si>
+  <si>
+    <t>(Very correct, -0.1)</t>
+  </si>
+  <si>
+    <t>(Very correct, -0.18)</t>
+  </si>
+  <si>
+    <t>(Very correct, -0.01)</t>
+  </si>
+  <si>
+    <t>(Very correct, -0.21)</t>
+  </si>
+  <si>
+    <t>(Moderate, 0.2)</t>
+  </si>
+  <si>
+    <t>(Moderate, 0.35)</t>
+  </si>
+  <si>
+    <t>(Moderate, 0.25)</t>
+  </si>
+  <si>
+    <t>(Moderate, 0.02)</t>
+  </si>
+  <si>
+    <t>(Moderate, 0.13)</t>
+  </si>
+  <si>
+    <t>(Moderate, 0.09)</t>
+  </si>
+  <si>
+    <t>(Moderate, -0.15)</t>
+  </si>
+  <si>
+    <t>(Correct, 0.15)</t>
+  </si>
+  <si>
+    <t>(Correct, -0.5)</t>
+  </si>
+  <si>
+    <t>(Correct, -0.18)</t>
+  </si>
+  <si>
+    <t>(Correct, 0.36)</t>
+  </si>
+  <si>
+    <t>(Correct, -0.27)</t>
+  </si>
+  <si>
+    <t>(Moderate, 0.41)</t>
+  </si>
+  <si>
+    <t>(Moderate, -0.18)</t>
+  </si>
+  <si>
+    <t>(Moderate, 0.23)</t>
+  </si>
+  <si>
+    <t>(Moderate, -0.45)</t>
+  </si>
+  <si>
+    <t>(Moderate, -0.32)</t>
+  </si>
+  <si>
+    <t>(Very correct, -0.23)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -858,6 +1376,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -960,7 +1489,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -969,6 +1498,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2734,9 +3264,847 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="DD1:DJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+    <sheetView topLeftCell="DD1" workbookViewId="0">
       <selection activeCell="DM27" sqref="DM27"/>
     </sheetView>
   </sheetViews>
@@ -3618,7 +4986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4201,7 +5569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EV6"/>
   <sheetViews>
@@ -7094,7 +8462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DM6"/>
   <sheetViews>
@@ -9299,7 +10667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -9426,4 +10794,239 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="6">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>